--- a/JavaScript/46. Cas - Test/Test-JavaScript-2.deo.xlsx
+++ b/JavaScript/46. Cas - Test/Test-JavaScript-2.deo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 1. grupa\JavaScript\46. Cas - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB09B24F-A657-470F-90D3-7B8EDC53E342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB285CE2-82AE-4F20-9972-742074649AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,13 +593,15 @@
       <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="2">
+        <v>35</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="5"/>
       <c r="F4" s="3"/>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -609,13 +611,15 @@
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="2">
+        <v>41</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="5"/>
       <c r="F5" s="3"/>
       <c r="G5" s="4">
         <f t="shared" ref="G5:G15" si="0">SUM(C5:F5)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,13 +629,15 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="2">
+        <v>32</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,13 +647,15 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="2">
+        <v>31</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="5"/>
       <c r="F7" s="3"/>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,13 +665,15 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="2">
+        <v>35</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="5"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -673,13 +683,15 @@
       <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="2">
+        <v>40</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="5"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,13 +701,15 @@
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2">
+        <v>29</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -705,13 +719,15 @@
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="2">
+        <v>28</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,13 +737,15 @@
       <c r="B12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="2">
+        <v>34</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="5"/>
       <c r="F12" s="3"/>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -737,13 +755,15 @@
       <c r="B13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="2">
+        <v>41</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="5"/>
       <c r="F13" s="3"/>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -753,13 +773,15 @@
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2">
+        <v>25</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
       <c r="F14" s="3"/>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -769,13 +791,15 @@
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="2">
+        <v>18</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
       <c r="G15" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/JavaScript/46. Cas - Test/Test-JavaScript-2.deo.xlsx
+++ b/JavaScript/46. Cas - Test/Test-JavaScript-2.deo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dženan Košuta\GitHub\IT Camp - 1. grupa\JavaScript\46. Cas - Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB285CE2-82AE-4F20-9972-742074649AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E17D66B-CC27-4779-B3C7-D92B037E5B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,12 +596,18 @@
       <c r="C4" s="2">
         <v>35</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
       <c r="G4" s="4">
         <f>SUM(C4:F4)</f>
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,12 +638,18 @@
       <c r="C6" s="2">
         <v>32</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3">
+        <v>20</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>20</v>
+      </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -668,12 +680,18 @@
       <c r="C8" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="5">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -704,12 +722,18 @@
       <c r="C10" s="2">
         <v>29</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+      <c r="E10" s="5">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3">
+        <v>10</v>
+      </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -740,12 +764,18 @@
       <c r="C12" s="2">
         <v>34</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12" s="5">
+        <v>14</v>
+      </c>
+      <c r="F12" s="3">
+        <v>17</v>
+      </c>
       <c r="G12" s="4">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,12 +788,18 @@
       <c r="C13" s="2">
         <v>41</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="3"/>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3">
+        <v>15</v>
+      </c>
       <c r="G13" s="4">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -776,12 +812,18 @@
       <c r="C14" s="2">
         <v>25</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3">
+        <v>20</v>
+      </c>
       <c r="G14" s="4">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
